--- a/data/trans_orig/Barthel-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Barthel-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>98.42119742477925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98.88836109365852</v>
+        <v>98.8883610936585</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>98.33687460692278</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>96.65331358974429</v>
+        <v>96.57837939242427</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>95.32929079604087</v>
+        <v>94.8113126120853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95.98207247390413</v>
+        <v>95.46813189529661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98.31415856150663</v>
+        <v>98.29068403532139</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>94.12177976471027</v>
+        <v>93.63944384560503</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>85.9668507320916</v>
+        <v>87.81445442302802</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>88.5040837458544</v>
+        <v>88.53226606175792</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>97.98555969120267</v>
+        <v>97.81367020528991</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>97.08944632342806</v>
+        <v>96.92638559148079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94.25656166398444</v>
+        <v>93.92104554289887</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>94.43776567242644</v>
+        <v>94.77334754463456</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>98.3304564667803</v>
+        <v>98.31370918424524</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>99.69479644950414</v>
+        <v>99.76674617971247</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>99.74957803844582</v>
+        <v>99.75322717829766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99.51662117888127</v>
+        <v>99.46543416898359</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99.3019628661297</v>
+        <v>99.2812894918109</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>99.56249088848276</v>
+        <v>99.56253055724677</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>99.58189274439361</v>
+        <v>99.777248148626</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>99.05403275340269</v>
+        <v>99.00171995104741</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>99.18296651856431</v>
+        <v>99.09941815030983</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>99.50638153546716</v>
+        <v>99.53026748856236</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>99.21204410150116</v>
+        <v>99.15500962739871</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98.9476912715518</v>
+        <v>98.98003828085685</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>99.13708339385083</v>
+        <v>99.08846306885346</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>95.61508584783356</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>96.13163495543355</v>
+        <v>96.13163495543354</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>98.98842060045909</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>98.36284571742254</v>
+        <v>98.46579383031199</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>91.76225795184629</v>
+        <v>91.88216781652008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88.93389946828053</v>
+        <v>88.45725956167517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>97.41525275160684</v>
+        <v>97.31631713506248</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>95.26151664525152</v>
+        <v>95.10280791128805</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>71.40787451818923</v>
+        <v>71.62769616365331</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>92.08223235780942</v>
+        <v>91.80583504597402</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>92.53565441800652</v>
+        <v>92.78246456485512</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>98.10933225840928</v>
+        <v>98.21753773316659</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>89.63126272612017</v>
+        <v>90.41246093994513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90.63469530100789</v>
+        <v>90.92608315820296</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>96.41456016189554</v>
+        <v>96.34618399841197</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>99.75288022858618</v>
+        <v>99.75293068163994</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>99.2284708039461</v>
+        <v>99.22995984955227</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97.78232149897163</v>
+        <v>97.57869058169265</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99.10804821650783</v>
+        <v>99.07388575976586</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>99.40265337247254</v>
+        <v>99.42525726858727</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>96.13855565109344</v>
+        <v>96.28975019392411</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>98.19049125063482</v>
+        <v>98.19418184093622</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>97.90665874972333</v>
+        <v>97.81543027873197</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>99.51254945051103</v>
+        <v>99.54520862990174</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>97.55496035362916</v>
+        <v>98.01851932837752</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>97.36073258741226</v>
+        <v>97.36343608193283</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>98.47804627441764</v>
+        <v>98.42870785079022</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>97.04377431689782</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95.68692463126278</v>
+        <v>95.6869246312628</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>91.80918709860291</v>
@@ -965,7 +965,7 @@
         <v>96.84617949012075</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>95.19589726369691</v>
+        <v>95.19589726369688</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>94.06917630876237</v>
+        <v>93.50141238188479</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>93.58458164868883</v>
+        <v>93.58120442899693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94.26099149140755</v>
+        <v>93.96979989234943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93.38222649542506</v>
+        <v>93.16947085412313</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>76.81474233575094</v>
+        <v>73.95682948117999</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>92.64337818790131</v>
+        <v>92.36324855580185</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>92.37004281404528</v>
+        <v>91.48835551288991</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>91.17450297335435</v>
+        <v>91.10007416500456</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>91.13582041214937</v>
+        <v>90.98977009925082</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94.42199900675159</v>
+        <v>94.26799890447313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94.95308553226202</v>
+        <v>94.81274953057782</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>93.52708148304042</v>
+        <v>93.48146790419132</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>98.79663730321062</v>
+        <v>98.71167758297383</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>98.59693998660561</v>
+        <v>98.58732839694494</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>98.44695610620084</v>
+        <v>98.44799469273313</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97.28617310805404</v>
+        <v>97.25628486467119</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>98.57750461748256</v>
+        <v>98.76923867040151</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>97.565204472525</v>
+        <v>97.43264750881995</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>98.28759026066764</v>
+        <v>98.34625625687281</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>96.05237019993839</v>
+        <v>96.02767917485998</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>97.85780361844131</v>
+        <v>97.84345190163786</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>97.77216141323586</v>
+        <v>97.85796612652808</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>98.122746267506</v>
+        <v>98.09854920949725</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>96.5065024438521</v>
+        <v>96.38587550721732</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>95.99252961922603</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95.28755132494373</v>
+        <v>95.28755132494372</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>97.06811031342122</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>95.57386868533756</v>
+        <v>95.45734999677423</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>89.51881577273947</v>
+        <v>89.67894835140393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94.03018648497755</v>
+        <v>94.15706142132058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93.83847513029491</v>
+        <v>93.79933679786602</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>93.7608372269448</v>
+        <v>94.00666886312388</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>91.68434855171729</v>
+        <v>91.80363280447523</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>90.24428615853809</v>
+        <v>90.53721658448188</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>93.31684064875468</v>
+        <v>93.33861679398099</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>95.84177498097279</v>
+        <v>95.7799321315543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90.76599845424494</v>
+        <v>90.86910681625132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93.7566601942944</v>
+        <v>93.90108791656064</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>94.1679089979967</v>
+        <v>93.94279766258168</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>98.01375680661096</v>
+        <v>98.05655284411112</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>94.95183637447509</v>
+        <v>94.86822116126298</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>97.25243376222943</v>
+        <v>97.34435848811881</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>96.33777982590057</v>
+        <v>96.42430952893048</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>98.63903994696358</v>
+        <v>98.63626451441466</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>96.81498334927251</v>
+        <v>96.74394266240699</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>96.64388197010304</v>
+        <v>96.64358893010753</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>96.34529013526435</v>
+        <v>96.30587851334731</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>98.00819397904021</v>
+        <v>97.94823504277031</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>95.19141501264518</v>
+        <v>95.02465736928364</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96.65522130108711</v>
+        <v>96.75424802667578</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>96.17107703620499</v>
+        <v>96.04957421592775</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>95.27895840565026</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95.78948081167808</v>
+        <v>95.78948081167809</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>93.29055476905717</v>
@@ -1225,7 +1225,7 @@
         <v>93.22916545961677</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>89.97803530397563</v>
+        <v>89.97803530397564</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>94.32531137145334</v>
@@ -1237,7 +1237,7 @@
         <v>94.20587418858402</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>91.81462234933474</v>
+        <v>91.81462234933473</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>90.67731869653063</v>
+        <v>91.97221122517308</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>90.6397227950925</v>
+        <v>90.99413414856924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93.10480276970294</v>
+        <v>92.70037942748361</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93.52675853873504</v>
+        <v>93.83994392083677</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>89.15435042242218</v>
+        <v>89.6359577729792</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>84.03630367600179</v>
+        <v>84.07690447191369</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>89.84271589719374</v>
+        <v>90.38188473092197</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>88.07037900399368</v>
+        <v>87.96938791569551</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>91.52257500786564</v>
+        <v>91.77151558553339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87.57119551220451</v>
+        <v>87.89123384942522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92.24732950549689</v>
+        <v>92.37968648843231</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>90.38185049802055</v>
+        <v>90.2331342333093</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>98.16877452660948</v>
+        <v>98.18705541010731</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>97.34481454205984</v>
+        <v>97.34772782806647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96.8863031064696</v>
+        <v>96.76930064825126</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97.14424587202828</v>
+        <v>97.24821857181708</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>95.90591996097938</v>
+        <v>96.00046320633309</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>90.78912303732533</v>
+        <v>90.50152559361179</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>95.33921098442146</v>
+        <v>95.72326278553221</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>91.5410388253176</v>
+        <v>91.53719120828335</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>96.37210234540204</v>
+        <v>96.42197963143178</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92.41347712131625</v>
+        <v>92.50840391706315</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95.60652347187573</v>
+        <v>95.65330311903843</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>92.97227125059919</v>
+        <v>93.08611395832055</v>
       </c>
     </row>
     <row r="19">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E19" s="5" t="inlineStr"/>
       <c r="F19" s="5" t="n">
-        <v>90.44068071037637</v>
+        <v>90.44068071037636</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>95.69089069292129</v>
@@ -1371,7 +1371,7 @@
         <v>92.89813130914482</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>90.32321020029856</v>
+        <v>90.32321020029858</v>
       </c>
     </row>
     <row r="20">
@@ -1385,31 +1385,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>82.32889923150891</v>
+        <v>82.34096653298884</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>94.0492102332319</v>
+        <v>94.14821991021454</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>89.90733743899104</v>
+        <v>89.79779943533993</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>90.82878024891279</v>
+        <v>90.83288022467114</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>88.55589883340912</v>
+        <v>88.67263869468663</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>94.25911055416601</v>
+        <v>94.1681517052923</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89.81571552464214</v>
+        <v>89.98138906034839</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90.82878024891279</v>
+        <v>90.83288022467114</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>88.70406192367417</v>
+        <v>88.89246712378831</v>
       </c>
     </row>
     <row r="21">
@@ -1423,31 +1423,31 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>97.60728315172696</v>
+        <v>97.51965829215476</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>96.767674038644</v>
+        <v>96.84113166262816</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>93.7501302296764</v>
+        <v>93.58605780836326</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>94.47568277055653</v>
+        <v>94.6111343820231</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>91.65750699751044</v>
+        <v>91.75603769747966</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>96.80572709759855</v>
+        <v>96.83797141699435</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>93.66951903897262</v>
+        <v>93.7271892373932</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>94.47568277055653</v>
+        <v>94.6111343820231</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>91.85544910099389</v>
+        <v>91.83219397403955</v>
       </c>
     </row>
     <row r="22">
@@ -1471,7 +1471,7 @@
         <v>96.18674672242335</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96.50169400904568</v>
+        <v>96.50169400904566</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>95.55347704696499</v>
@@ -1483,7 +1483,7 @@
         <v>93.58032686846808</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>92.25677052945591</v>
+        <v>92.25677052945592</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>96.3463927665464</v>
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>96.44435144487069</v>
+        <v>96.47705728500341</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>93.69115955976153</v>
+        <v>93.51298968718861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>95.1918866252482</v>
+        <v>95.14886277850211</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>95.791061386884</v>
+        <v>95.74205766993191</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>94.36228993603909</v>
+        <v>94.297078925332</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>89.93942120809027</v>
+        <v>90.01013410189351</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>92.13572375407293</v>
+        <v>92.17537259238449</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>91.37785204876698</v>
+        <v>91.39736079035903</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>95.62605601453309</v>
+        <v>95.63226951482471</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>91.83085595463282</v>
+        <v>92.03572428417364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>93.8139374739861</v>
+        <v>93.8619150732644</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>93.55759614592502</v>
+        <v>93.57932697093243</v>
       </c>
     </row>
     <row r="24">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>98.10639520672642</v>
+        <v>98.06704105664284</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>96.16746029932288</v>
+        <v>96.29050731959678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>97.04802328965694</v>
+        <v>96.98048914962318</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>97.05126956944544</v>
+        <v>97.0604338032857</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>96.46748363463651</v>
+        <v>96.4052674998523</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>92.69448324881247</v>
+        <v>92.827524295488</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>94.65984353003975</v>
+        <v>94.76946779895374</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>93.08614906583587</v>
+        <v>93.00891804151594</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>96.94525086316673</v>
+        <v>97.0116104102602</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>93.8606305593523</v>
+        <v>93.8062443004109</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>95.44951583628078</v>
+        <v>95.41270799492082</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>94.67290059949623</v>
+        <v>94.64953595378553</v>
       </c>
     </row>
     <row r="25">
